--- a/testFiles/Excel_資料來源.xlsx
+++ b/testFiles/Excel_資料來源.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andersen/Dev/NodeJS/excel-to-word-web/testFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\NodeJS\excel-to-word-web\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE86DC2-AF4C-7041-AEF7-D48B1CAA8982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA317D-F304-48F9-8380-AECC071BF8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Andersen</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,13 +87,29 @@
   </si>
   <si>
     <t>男生</t>
+  </si>
+  <si>
+    <t>零用錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,20 +433,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -441,13 +457,16 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -457,14 +476,17 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -474,14 +496,17 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -491,17 +516,20 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" imeMode="off" allowBlank="1" promptTitle="性別" prompt="請選擇性別" sqref="E2:E4" xr:uid="{BD4B0CBB-B475-4844-BD2C-A4446E38C3DC}">
+    <dataValidation type="list" imeMode="off" allowBlank="1" promptTitle="性別" prompt="請選擇性別" sqref="F2:F4" xr:uid="{BD4B0CBB-B475-4844-BD2C-A4446E38C3DC}">
       <formula1>"男生,女生"</formula1>
     </dataValidation>
   </dataValidations>

--- a/testFiles/Excel_資料來源.xlsx
+++ b/testFiles/Excel_資料來源.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\NodeJS\excel-to-word-web\testFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andersen\dev\GitHub\excel-to-word-web\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA317D-F304-48F9-8380-AECC071BF8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D6140-0C9A-4392-B798-A8FB9A86DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="16130" windowHeight="8590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="表_1" sheetId="1" r:id="rId1"/>
+    <sheet name="表_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Andersen</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +103,54 @@
   </si>
   <si>
     <t>321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gefanxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oiceuthn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968065432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>God</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,18 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" customWidth="1"/>
+    <col min="3" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -466,7 +515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -486,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -506,7 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -536,4 +585,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341E96B-9C0E-4FDC-82B3-9E3229E5CF2B}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.8984375" customWidth="1"/>
+    <col min="3" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" imeMode="off" allowBlank="1" promptTitle="性別" prompt="請選擇性別" sqref="F2:F4" xr:uid="{FBF7AC1F-96E8-47B2-BF85-693688D70333}">
+      <formula1>"男生,女生"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>